--- a/Informativos/DBs Accesos.xlsx
+++ b/Informativos/DBs Accesos.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>Archivo para accesos</t>
   </si>
@@ -51,27 +49,12 @@
     <t>root</t>
   </si>
   <si>
-    <t>https://loscorrales.com.mx:8443</t>
-  </si>
-  <si>
-    <t>loscorrales.com.mx</t>
-  </si>
-  <si>
-    <t>Dallas</t>
-  </si>
-  <si>
     <t>ServidorX</t>
   </si>
   <si>
-    <t>DESARROLLO</t>
-  </si>
-  <si>
     <t>ServidorA</t>
   </si>
   <si>
-    <t>SISTEMAS@2012</t>
-  </si>
-  <si>
     <t>Mysql</t>
   </si>
   <si>
@@ -81,21 +64,9 @@
     <t>SISTEMAS</t>
   </si>
   <si>
-    <t>ACCESO.2013</t>
-  </si>
-  <si>
     <t>teincom.2013</t>
   </si>
   <si>
-    <t>FTP</t>
-  </si>
-  <si>
-    <t>ftp://loscorrales.com.mx</t>
-  </si>
-  <si>
-    <t>Carpetas Compartias</t>
-  </si>
-  <si>
     <t>Dropbox</t>
   </si>
   <si>
@@ -114,9 +85,6 @@
     <t>acceso.2013</t>
   </si>
   <si>
-    <t>sistemas@2013</t>
-  </si>
-  <si>
     <t>https://portal.projectlocker.com/</t>
   </si>
   <si>
@@ -147,36 +115,6 @@
     <t>Internet</t>
   </si>
   <si>
-    <t>Dominio corrales.matriz</t>
-  </si>
-  <si>
-    <t>d3s4rr0ll0.2013</t>
-  </si>
-  <si>
-    <t>All servers</t>
-  </si>
-  <si>
-    <t>soporte</t>
-  </si>
-  <si>
-    <t>teincom</t>
-  </si>
-  <si>
-    <t>corre</t>
-  </si>
-  <si>
-    <t>teincomc</t>
-  </si>
-  <si>
-    <t>logisn</t>
-  </si>
-  <si>
-    <t>logisf</t>
-  </si>
-  <si>
-    <t>systec10_corrale</t>
-  </si>
-  <si>
     <t>1234</t>
   </si>
   <si>
@@ -186,7 +124,16 @@
     <t>http://loscorrales.com.mx:2082/</t>
   </si>
   <si>
-    <t>corrales_dev</t>
+    <t>CORRALES@2013</t>
+  </si>
+  <si>
+    <t>GREENARROW@2015</t>
+  </si>
+  <si>
+    <t>Todos los servidores</t>
+  </si>
+  <si>
+    <t>Soporte</t>
   </si>
 </sst>
 </file>
@@ -259,7 +206,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -288,6 +234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -590,49 +537,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G34"/>
+  <dimension ref="B2:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="2:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -641,16 +588,16 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>8</v>
@@ -663,417 +610,189 @@
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>55</v>
+      <c r="D5" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="G10" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="14" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="3">
-        <v>123</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="C16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
+      <c r="D16" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="24" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34" t="s">
-        <v>49</v>
-      </c>
-      <c r="F34" t="s">
-        <v>49</v>
-      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1"/>
+    <hyperlink ref="F7" r:id="rId2"/>
+    <hyperlink ref="F8" r:id="rId3"/>
+    <hyperlink ref="F11" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>